--- a/backend/files/template.xlsx
+++ b/backend/files/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wigun/Kuliah/skripsi/Security-Environment-Configuration-Orchestrator/backend/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6B169-C085-394B-B982-BC0DFFC56968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C31A1D-A767-4B45-A158-4BF07CFC7061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3420" windowWidth="28040" windowHeight="17440" xr2:uid="{542F66B2-C026-0E46-BFFE-675AE25A1131}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Host Name</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>SSH Private Key</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -99,10 +102,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -112,6 +112,12 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -139,15 +145,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8988E13-7A5B-2F40-AEAF-0200AB15370D}" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:F3" xr:uid="{B8988E13-7A5B-2F40-AEAF-0200AB15370D}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{50C3C1F4-4174-AD41-9758-6DE509CAD79B}" name="IP Address" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A0108940-B2A7-2F4A-A9EA-072A8372EBCE}" name="Host Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{61C8430D-42C0-B94A-AF85-688184A02D3E}" name="SSH Username" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{8AAB0F6B-9A02-024D-B074-938E543F19F0}" name="SSH Port" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{169E6D8D-BA18-3F46-94F1-FBF7D025F4F4}" name="SSH Private Key" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{3EAA8258-E82E-0D45-9DF8-7DE4E078EFF8}" name="OS Version Name" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8988E13-7A5B-2F40-AEAF-0200AB15370D}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G3" xr:uid="{B8988E13-7A5B-2F40-AEAF-0200AB15370D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{50C3C1F4-4174-AD41-9758-6DE509CAD79B}" name="IP Address" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A0108940-B2A7-2F4A-A9EA-072A8372EBCE}" name="Host Name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{61C8430D-42C0-B94A-AF85-688184A02D3E}" name="SSH Username" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{1420DC13-6DC9-594E-A2A2-52B3F62BA051}" name="Password" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{8AAB0F6B-9A02-024D-B074-938E543F19F0}" name="SSH Port" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{169E6D8D-BA18-3F46-94F1-FBF7D025F4F4}" name="SSH Private Key" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3EAA8258-E82E-0D45-9DF8-7DE4E078EFF8}" name="OS Version Name" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215DC3BD-209A-4E4B-BBC8-0A5791A69B87}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +491,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -495,20 +502,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
